--- a/MoPanda/data/core/Rel-k/MICP - Parameters.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brightenergy.sharepoint.com/sites/ProjectExecution/Shared Documents/Active Projects/P21.02.3.2 SYD- Denova StorCo/08- Denova 1/d. Core/Rel K/CA model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MoPanda\MoPanda\data\core\Rel-k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{21221658-9CE8-437C-B70B-99C440508806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511E5E05-4BD7-4058-9CCF-1874C080CACB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CDD5BE-A974-49CD-BBEE-5459D30282F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2FA9C8-AD76-478C-BCA9-78F619234C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7B2FA9C8-AD76-478C-BCA9-78F619234C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sample</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Delta Pressure</t>
+  </si>
+  <si>
+    <t>Trapped Gas</t>
+  </si>
+  <si>
+    <t>Porosity</t>
   </si>
 </sst>
 </file>
@@ -442,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631EBF6D-EC21-45DA-861C-2A509164DE25}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,10 +473,19 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,11 +498,17 @@
       <c r="D2">
         <v>17.009196696696694</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.43</v>
+      </c>
+      <c r="H2">
         <v>0.56531798609863682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,11 +521,17 @@
       <c r="D3">
         <v>976.31263550546066</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H3">
         <v>-2230059.2915828279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -514,11 +544,14 @@
       <c r="D4">
         <v>19.526252710109212</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0.1231</v>
+      </c>
+      <c r="H4">
         <v>0.52852449103229326</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -531,11 +564,14 @@
       <c r="D5">
         <v>25.765410380795</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="H5">
         <v>0.75495280322973701</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -548,11 +584,14 @@
       <c r="D6">
         <v>0.4107881466372032</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H6">
         <v>0.4281908608417892</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -565,11 +604,17 @@
       <c r="D7">
         <v>1.6247590874456546</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H7">
         <v>0.15157569000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -582,11 +627,14 @@
       <c r="D8">
         <v>0.80935954541902499</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>0.2888</v>
+      </c>
+      <c r="H8">
         <v>0.51707605000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -599,7 +647,13 @@
       <c r="D9">
         <v>2073.5020735020735</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H9">
         <v>0.26295467692781932</v>
       </c>
     </row>
@@ -609,78 +663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
-    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
-    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
@@ -958,10 +940,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
+    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
+    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C62516-26A8-4224-8980-4FF06071C60F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6D93CC0-BB4D-463B-87B6-B6DB74B7137F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
+    <ds:schemaRef ds:uri="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -981,10 +996,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="021c9e3e-00a0-4889-8216-deb36ba9289a"/>
     <ds:schemaRef ds:uri="8b5a46f7-0c90-4823-855f-0db4de7f3cd9"/>
+    <ds:schemaRef ds:uri="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
+    <ds:schemaRef ds:uri="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6D93CC0-BB4D-463B-87B6-B6DB74B7137F}"/>
 </file>
--- a/MoPanda/data/core/Rel-k/MICP - Parameters.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MoPanda\MoPanda\data\core\Rel-k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brightenergy.sharepoint.com/sites/CCSCorporate/Shared Documents/Project Development/SUBSURFACE GROUP/_Team Members Folders/Fan/Projects/Denova1/EDA/MoPanda/MoPanda/data/core/Rel-k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CDD5BE-A974-49CD-BBEE-5459D30282F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C4CDD5BE-A974-49CD-BBEE-5459D30282F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B72E01F8-5997-4D68-8F66-7F44A0BCAAB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7B2FA9C8-AD76-478C-BCA9-78F619234C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2FA9C8-AD76-478C-BCA9-78F619234C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +498,9 @@
       <c r="D2">
         <v>17.009196696696694</v>
       </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
       <c r="F2">
         <v>0.15329999999999999</v>
       </c>
@@ -505,7 +508,7 @@
         <v>0.43</v>
       </c>
       <c r="H2">
-        <v>0.56531798609863682</v>
+        <v>1.560852357618379</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -521,6 +524,9 @@
       <c r="D3">
         <v>976.31263550546066</v>
       </c>
+      <c r="E3">
+        <v>1800</v>
+      </c>
       <c r="F3">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -528,7 +534,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="H3">
-        <v>-2230059.2915828279</v>
+        <v>1.3379664987812281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,11 +550,14 @@
       <c r="D4">
         <v>19.526252710109212</v>
       </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
       <c r="F4">
         <v>0.1231</v>
       </c>
       <c r="H4">
-        <v>0.52852449103229326</v>
+        <v>1.8418205114479329</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,11 +573,14 @@
       <c r="D5">
         <v>25.765410380795</v>
       </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
       <c r="F5">
         <v>0.15110000000000001</v>
       </c>
       <c r="H5">
-        <v>0.75495280322973701</v>
+        <v>1.5339764642108551</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,11 +596,14 @@
       <c r="D6">
         <v>0.4107881466372032</v>
       </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
       <c r="F6">
         <v>0.26700000000000002</v>
       </c>
       <c r="H6">
-        <v>0.4281908608417892</v>
+        <v>1.3249409994698911</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -604,6 +619,9 @@
       <c r="D7">
         <v>1.6247590874456546</v>
       </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
       <c r="F7">
         <v>0.30399999999999999</v>
       </c>
@@ -611,7 +629,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="H7">
-        <v>0.15157569000000001</v>
+        <v>1.5012484640420349</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,11 +645,14 @@
       <c r="D8">
         <v>0.80935954541902499</v>
       </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
       <c r="F8">
         <v>0.2888</v>
       </c>
       <c r="H8">
-        <v>0.51707605000000001</v>
+        <v>1.425352088595236</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,6 +668,9 @@
       <c r="D9">
         <v>2073.5020735020735</v>
       </c>
+      <c r="E9">
+        <v>1800</v>
+      </c>
       <c r="F9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -654,7 +678,7 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="H9">
-        <v>0.26295467692781932</v>
+        <v>1.7357464923307131</v>
       </c>
     </row>
   </sheetData>
@@ -663,6 +687,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
@@ -940,15 +973,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -963,6 +987,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBB5227-EC83-4A71-8883-846FF6F510D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6D93CC0-BB4D-463B-87B6-B6DB74B7137F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -981,14 +1013,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBB5227-EC83-4A71-8883-846FF6F510D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7ED935-DC3C-4984-AA71-1DB06CBE8AB6}">
   <ds:schemaRefs>
